--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T10:43:20+00:00</t>
+    <t>2023-03-02T11:22:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:22:10+00:00</t>
+    <t>2023-03-02T13:04:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:04:14+00:00</t>
+    <t>2023-03-02T14:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T14:30:09+00:00</t>
+    <t>2023-03-02T14:36:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T14:36:04+00:00</t>
+    <t>2023-03-02T14:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:00:28+00:00</t>
+    <t>2023-03-06T11:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:01:00+00:00</t>
+    <t>2023-03-06T11:01:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:01:23+00:00</t>
+    <t>2023-03-06T11:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:02:53+00:00</t>
+    <t>2023-03-06T15:16:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:16:36+00:00</t>
+    <t>2023-03-17T16:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -496,6 +496,9 @@
   <si>
     <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-territorial}
 </t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Organization.extension:ror-organization-financial-help-type</t>
@@ -1539,9 +1542,6 @@
   </si>
   <si>
     <t>Organization.address.extension.extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>Organization.address.extension:inseeCode.url</t>
@@ -4099,10 +4099,10 @@
         <v>153</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4170,13 +4170,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>120</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>70</v>
@@ -4198,7 +4198,7 @@
         <v>70</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>146</v>
@@ -4272,13 +4272,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>120</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>70</v>
@@ -4300,7 +4300,7 @@
         <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>146</v>
@@ -4374,13 +4374,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>120</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>70</v>
@@ -4402,7 +4402,7 @@
         <v>70</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>146</v>
@@ -4476,13 +4476,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>120</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>70</v>
@@ -4504,7 +4504,7 @@
         <v>70</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>146</v>
@@ -4578,13 +4578,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>120</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>70</v>
@@ -4606,7 +4606,7 @@
         <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>146</v>
@@ -4680,13 +4680,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>120</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>70</v>
@@ -4708,7 +4708,7 @@
         <v>70</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>146</v>
@@ -4782,13 +4782,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>120</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>70</v>
@@ -4810,7 +4810,7 @@
         <v>70</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>146</v>
@@ -4884,13 +4884,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>120</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>70</v>
@@ -4912,10 +4912,10 @@
         <v>70</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>142</v>
@@ -4986,13 +4986,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>120</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>70</v>
@@ -5014,7 +5014,7 @@
         <v>70</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>146</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5117,16 +5117,16 @@
         <v>122</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>125</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>70</v>
@@ -5175,7 +5175,7 @@
         <v>128</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>71</v>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5218,17 +5218,17 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>70</v>
@@ -5265,7 +5265,7 @@
         <v>70</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
@@ -5275,7 +5275,7 @@
         <v>128</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>71</v>
@@ -5284,7 +5284,7 @@
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>90</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5318,13 +5318,13 @@
         <v>70</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5375,7 +5375,7 @@
         <v>70</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>71</v>
@@ -5392,10 +5392,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5424,7 +5424,7 @@
         <v>123</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>125</v>
@@ -5477,7 +5477,7 @@
         <v>128</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>71</v>
@@ -5494,10 +5494,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5523,16 +5523,16 @@
         <v>98</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>70</v>
@@ -5557,13 +5557,13 @@
         <v>70</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>70</v>
@@ -5581,7 +5581,7 @@
         <v>70</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>71</v>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5624,19 +5624,19 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>70</v>
@@ -5661,13 +5661,13 @@
         <v>70</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>70</v>
@@ -5685,7 +5685,7 @@
         <v>70</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>71</v>
@@ -5702,10 +5702,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5731,16 +5731,16 @@
         <v>92</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>70</v>
@@ -5753,7 +5753,7 @@
         <v>70</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>70</v>
@@ -5789,7 +5789,7 @@
         <v>70</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>71</v>
@@ -5806,10 +5806,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5832,16 +5832,16 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5855,7 +5855,7 @@
         <v>70</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>70</v>
@@ -5891,7 +5891,7 @@
         <v>70</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>71</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5934,16 +5934,16 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5993,7 +5993,7 @@
         <v>70</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>71</v>
@@ -6005,15 +6005,15 @@
         <v>89</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6036,16 +6036,16 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6095,7 +6095,7 @@
         <v>70</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>71</v>
@@ -6107,18 +6107,18 @@
         <v>89</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>70</v>
@@ -6140,17 +6140,17 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>70</v>
@@ -6199,7 +6199,7 @@
         <v>70</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>71</v>
@@ -6208,7 +6208,7 @@
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>90</v>
@@ -6216,10 +6216,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6242,13 +6242,13 @@
         <v>70</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6299,7 +6299,7 @@
         <v>70</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>71</v>
@@ -6316,10 +6316,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6348,7 +6348,7 @@
         <v>123</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>125</v>
@@ -6401,7 +6401,7 @@
         <v>128</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>71</v>
@@ -6418,10 +6418,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6447,16 +6447,16 @@
         <v>98</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>70</v>
@@ -6481,13 +6481,13 @@
         <v>70</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>70</v>
@@ -6505,7 +6505,7 @@
         <v>70</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>71</v>
@@ -6522,10 +6522,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6548,26 +6548,26 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>70</v>
@@ -6585,11 +6585,11 @@
         <v>70</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>70</v>
@@ -6607,7 +6607,7 @@
         <v>70</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>71</v>
@@ -6624,10 +6624,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6653,16 +6653,16 @@
         <v>92</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>70</v>
@@ -6675,7 +6675,7 @@
         <v>70</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>70</v>
@@ -6711,7 +6711,7 @@
         <v>70</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>71</v>
@@ -6728,10 +6728,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6754,16 +6754,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6777,7 +6777,7 @@
         <v>70</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>70</v>
@@ -6813,7 +6813,7 @@
         <v>70</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>71</v>
@@ -6830,10 +6830,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6856,16 +6856,16 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6915,7 +6915,7 @@
         <v>70</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>71</v>
@@ -6927,15 +6927,15 @@
         <v>89</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6958,16 +6958,16 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7017,7 +7017,7 @@
         <v>70</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>71</v>
@@ -7029,18 +7029,18 @@
         <v>89</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>70</v>
@@ -7062,17 +7062,17 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>70</v>
@@ -7121,7 +7121,7 @@
         <v>70</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>71</v>
@@ -7130,7 +7130,7 @@
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>90</v>
@@ -7138,10 +7138,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7164,13 +7164,13 @@
         <v>70</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7221,7 +7221,7 @@
         <v>70</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>71</v>
@@ -7238,10 +7238,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7270,7 +7270,7 @@
         <v>123</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>125</v>
@@ -7323,7 +7323,7 @@
         <v>128</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>71</v>
@@ -7340,10 +7340,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7369,16 +7369,16 @@
         <v>98</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>70</v>
@@ -7403,13 +7403,13 @@
         <v>70</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>70</v>
@@ -7427,7 +7427,7 @@
         <v>70</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>71</v>
@@ -7444,10 +7444,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7470,26 +7470,26 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>70</v>
@@ -7507,11 +7507,11 @@
         <v>70</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>70</v>
@@ -7529,7 +7529,7 @@
         <v>70</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>71</v>
@@ -7546,10 +7546,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7575,16 +7575,16 @@
         <v>92</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>70</v>
@@ -7597,7 +7597,7 @@
         <v>70</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>70</v>
@@ -7633,7 +7633,7 @@
         <v>70</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>71</v>
@@ -7650,10 +7650,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7676,16 +7676,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7699,7 +7699,7 @@
         <v>70</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>70</v>
@@ -7735,7 +7735,7 @@
         <v>70</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>71</v>
@@ -7752,10 +7752,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7778,16 +7778,16 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7837,7 +7837,7 @@
         <v>70</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>71</v>
@@ -7849,15 +7849,15 @@
         <v>89</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7880,16 +7880,16 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7939,7 +7939,7 @@
         <v>70</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>71</v>
@@ -7951,18 +7951,18 @@
         <v>89</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>70</v>
@@ -7984,17 +7984,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>70</v>
@@ -8043,7 +8043,7 @@
         <v>70</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>71</v>
@@ -8052,7 +8052,7 @@
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>90</v>
@@ -8060,10 +8060,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8086,13 +8086,13 @@
         <v>70</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8143,7 +8143,7 @@
         <v>70</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>71</v>
@@ -8160,10 +8160,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8192,7 +8192,7 @@
         <v>123</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>125</v>
@@ -8245,7 +8245,7 @@
         <v>128</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>71</v>
@@ -8262,10 +8262,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8291,16 +8291,16 @@
         <v>98</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>70</v>
@@ -8325,13 +8325,13 @@
         <v>70</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>70</v>
@@ -8349,7 +8349,7 @@
         <v>70</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>71</v>
@@ -8366,10 +8366,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8392,26 +8392,26 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>70</v>
@@ -8429,11 +8429,11 @@
         <v>70</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>70</v>
@@ -8451,7 +8451,7 @@
         <v>70</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>71</v>
@@ -8468,10 +8468,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8497,16 +8497,16 @@
         <v>92</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>70</v>
@@ -8519,7 +8519,7 @@
         <v>70</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>70</v>
@@ -8555,7 +8555,7 @@
         <v>70</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>71</v>
@@ -8572,10 +8572,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8598,16 +8598,16 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8621,7 +8621,7 @@
         <v>70</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>70</v>
@@ -8657,7 +8657,7 @@
         <v>70</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>71</v>
@@ -8674,10 +8674,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8700,16 +8700,16 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8759,7 +8759,7 @@
         <v>70</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>71</v>
@@ -8771,15 +8771,15 @@
         <v>89</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8802,16 +8802,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8861,7 +8861,7 @@
         <v>70</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>71</v>
@@ -8873,18 +8873,18 @@
         <v>89</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>70</v>
@@ -8906,17 +8906,17 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>70</v>
@@ -8965,7 +8965,7 @@
         <v>70</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>71</v>
@@ -8974,7 +8974,7 @@
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>90</v>
@@ -8982,10 +8982,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9008,13 +9008,13 @@
         <v>70</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9065,7 +9065,7 @@
         <v>70</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>71</v>
@@ -9082,10 +9082,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9114,7 +9114,7 @@
         <v>123</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>125</v>
@@ -9167,7 +9167,7 @@
         <v>128</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>71</v>
@@ -9184,10 +9184,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9213,16 +9213,16 @@
         <v>98</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>70</v>
@@ -9247,13 +9247,13 @@
         <v>70</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>70</v>
@@ -9271,7 +9271,7 @@
         <v>70</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>71</v>
@@ -9288,10 +9288,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9314,26 +9314,26 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>70</v>
@@ -9351,11 +9351,11 @@
         <v>70</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>70</v>
@@ -9373,7 +9373,7 @@
         <v>70</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>71</v>
@@ -9390,10 +9390,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9419,16 +9419,16 @@
         <v>92</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>70</v>
@@ -9441,7 +9441,7 @@
         <v>70</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>70</v>
@@ -9477,7 +9477,7 @@
         <v>70</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>71</v>
@@ -9494,10 +9494,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9520,16 +9520,16 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9543,7 +9543,7 @@
         <v>70</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>70</v>
@@ -9579,7 +9579,7 @@
         <v>70</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>71</v>
@@ -9596,10 +9596,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9622,16 +9622,16 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9681,7 +9681,7 @@
         <v>70</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>71</v>
@@ -9693,15 +9693,15 @@
         <v>89</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9724,16 +9724,16 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9783,7 +9783,7 @@
         <v>70</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>71</v>
@@ -9795,18 +9795,18 @@
         <v>89</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>70</v>
@@ -9828,17 +9828,17 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>70</v>
@@ -9887,7 +9887,7 @@
         <v>70</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>71</v>
@@ -9896,7 +9896,7 @@
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>90</v>
@@ -9904,10 +9904,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9930,13 +9930,13 @@
         <v>70</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9987,7 +9987,7 @@
         <v>70</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>71</v>
@@ -10004,10 +10004,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10036,7 +10036,7 @@
         <v>123</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>125</v>
@@ -10089,7 +10089,7 @@
         <v>128</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>71</v>
@@ -10106,10 +10106,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10135,16 +10135,16 @@
         <v>98</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>70</v>
@@ -10169,13 +10169,13 @@
         <v>70</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>70</v>
@@ -10193,7 +10193,7 @@
         <v>70</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>71</v>
@@ -10210,10 +10210,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10236,26 +10236,26 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>70</v>
@@ -10273,11 +10273,11 @@
         <v>70</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>70</v>
@@ -10295,7 +10295,7 @@
         <v>70</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>71</v>
@@ -10312,10 +10312,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10341,16 +10341,16 @@
         <v>92</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>70</v>
@@ -10363,7 +10363,7 @@
         <v>70</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>70</v>
@@ -10399,7 +10399,7 @@
         <v>70</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>71</v>
@@ -10416,10 +10416,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10442,16 +10442,16 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10465,7 +10465,7 @@
         <v>70</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>70</v>
@@ -10501,7 +10501,7 @@
         <v>70</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>71</v>
@@ -10518,10 +10518,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10544,16 +10544,16 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10603,7 +10603,7 @@
         <v>70</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>71</v>
@@ -10615,15 +10615,15 @@
         <v>89</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10646,16 +10646,16 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10705,7 +10705,7 @@
         <v>70</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>71</v>
@@ -10717,18 +10717,18 @@
         <v>89</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>70</v>
@@ -10750,17 +10750,17 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>70</v>
@@ -10809,7 +10809,7 @@
         <v>70</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>71</v>
@@ -10818,7 +10818,7 @@
         <v>72</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>90</v>
@@ -10826,10 +10826,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10852,13 +10852,13 @@
         <v>70</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10909,7 +10909,7 @@
         <v>70</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>71</v>
@@ -10926,10 +10926,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10958,7 +10958,7 @@
         <v>123</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>125</v>
@@ -11011,7 +11011,7 @@
         <v>128</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>71</v>
@@ -11028,10 +11028,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11057,16 +11057,16 @@
         <v>98</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>70</v>
@@ -11091,13 +11091,13 @@
         <v>70</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>70</v>
@@ -11115,7 +11115,7 @@
         <v>70</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>71</v>
@@ -11132,10 +11132,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11158,26 +11158,26 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>70</v>
@@ -11195,11 +11195,11 @@
         <v>70</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>70</v>
@@ -11217,7 +11217,7 @@
         <v>70</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>71</v>
@@ -11234,10 +11234,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11263,16 +11263,16 @@
         <v>92</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>70</v>
@@ -11285,7 +11285,7 @@
         <v>70</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>70</v>
@@ -11321,7 +11321,7 @@
         <v>70</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>71</v>
@@ -11338,10 +11338,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11364,16 +11364,16 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11387,7 +11387,7 @@
         <v>70</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>70</v>
@@ -11423,7 +11423,7 @@
         <v>70</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>71</v>
@@ -11440,10 +11440,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11466,16 +11466,16 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11525,7 +11525,7 @@
         <v>70</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>71</v>
@@ -11537,15 +11537,15 @@
         <v>89</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11568,16 +11568,16 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11627,7 +11627,7 @@
         <v>70</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>71</v>
@@ -11639,18 +11639,18 @@
         <v>89</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>70</v>
@@ -11672,17 +11672,17 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>70</v>
@@ -11731,7 +11731,7 @@
         <v>70</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>71</v>
@@ -11740,7 +11740,7 @@
         <v>72</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>90</v>
@@ -11748,10 +11748,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11774,13 +11774,13 @@
         <v>70</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11831,7 +11831,7 @@
         <v>70</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>71</v>
@@ -11848,10 +11848,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11880,7 +11880,7 @@
         <v>123</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>125</v>
@@ -11933,7 +11933,7 @@
         <v>128</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>71</v>
@@ -11950,10 +11950,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11979,16 +11979,16 @@
         <v>98</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>70</v>
@@ -12013,13 +12013,13 @@
         <v>70</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>70</v>
@@ -12037,7 +12037,7 @@
         <v>70</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>71</v>
@@ -12054,10 +12054,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12080,26 +12080,26 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>70</v>
@@ -12117,11 +12117,11 @@
         <v>70</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>70</v>
@@ -12139,7 +12139,7 @@
         <v>70</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>71</v>
@@ -12156,10 +12156,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12185,16 +12185,16 @@
         <v>92</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>70</v>
@@ -12207,7 +12207,7 @@
         <v>70</v>
       </c>
       <c r="T94" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U94" t="s" s="2">
         <v>70</v>
@@ -12243,7 +12243,7 @@
         <v>70</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>71</v>
@@ -12260,10 +12260,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12286,16 +12286,16 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12309,7 +12309,7 @@
         <v>70</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>70</v>
@@ -12345,7 +12345,7 @@
         <v>70</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>71</v>
@@ -12362,10 +12362,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12388,16 +12388,16 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -12447,7 +12447,7 @@
         <v>70</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>71</v>
@@ -12459,15 +12459,15 @@
         <v>89</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12490,16 +12490,16 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -12549,7 +12549,7 @@
         <v>70</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>71</v>
@@ -12561,15 +12561,15 @@
         <v>89</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12592,70 +12592,70 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q98" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF98" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="P98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q98" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>71</v>
@@ -12672,10 +12672,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12698,19 +12698,19 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>70</v>
@@ -12735,19 +12735,19 @@
         <v>70</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC99" s="2"/>
       <c r="AD99" t="s" s="2">
@@ -12757,7 +12757,7 @@
         <v>128</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>71</v>
@@ -12774,13 +12774,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>70</v>
@@ -12802,19 +12802,19 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>70</v>
@@ -12839,13 +12839,13 @@
         <v>70</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>70</v>
@@ -12863,7 +12863,7 @@
         <v>70</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>71</v>
@@ -12880,10 +12880,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12906,13 +12906,13 @@
         <v>70</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12963,7 +12963,7 @@
         <v>70</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>71</v>
@@ -12980,10 +12980,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13012,7 +13012,7 @@
         <v>123</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>125</v>
@@ -13065,7 +13065,7 @@
         <v>128</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>71</v>
@@ -13082,10 +13082,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13108,19 +13108,19 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>70</v>
@@ -13169,7 +13169,7 @@
         <v>70</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>71</v>
@@ -13186,10 +13186,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13212,13 +13212,13 @@
         <v>70</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13269,7 +13269,7 @@
         <v>70</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>71</v>
@@ -13286,10 +13286,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13318,7 +13318,7 @@
         <v>123</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>125</v>
@@ -13371,7 +13371,7 @@
         <v>128</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>71</v>
@@ -13388,10 +13388,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13417,29 +13417,29 @@
         <v>92</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>70</v>
       </c>
       <c r="T106" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="U106" t="s" s="2">
         <v>70</v>
@@ -13475,7 +13475,7 @@
         <v>70</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>71</v>
@@ -13492,10 +13492,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13518,16 +13518,16 @@
         <v>78</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -13577,7 +13577,7 @@
         <v>70</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>71</v>
@@ -13594,10 +13594,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13623,16 +13623,16 @@
         <v>98</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>70</v>
@@ -13681,7 +13681,7 @@
         <v>70</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>71</v>
@@ -13698,10 +13698,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13724,19 +13724,19 @@
         <v>78</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>70</v>
@@ -13785,7 +13785,7 @@
         <v>70</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>71</v>
@@ -13802,10 +13802,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13828,19 +13828,19 @@
         <v>78</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>70</v>
@@ -13889,7 +13889,7 @@
         <v>70</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>71</v>
@@ -13906,10 +13906,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13932,19 +13932,19 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>70</v>
@@ -13993,7 +13993,7 @@
         <v>70</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>71</v>
@@ -14010,13 +14010,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>70</v>
@@ -14038,19 +14038,19 @@
         <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>70</v>
@@ -14075,13 +14075,13 @@
         <v>70</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>70</v>
@@ -14099,7 +14099,7 @@
         <v>70</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>71</v>
@@ -14116,10 +14116,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14142,13 +14142,13 @@
         <v>70</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14199,7 +14199,7 @@
         <v>70</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>71</v>
@@ -14216,10 +14216,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14248,7 +14248,7 @@
         <v>123</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N114" t="s" s="2">
         <v>125</v>
@@ -14301,7 +14301,7 @@
         <v>128</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>71</v>
@@ -14318,10 +14318,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14344,19 +14344,19 @@
         <v>78</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>70</v>
@@ -14405,7 +14405,7 @@
         <v>70</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>71</v>
@@ -14422,10 +14422,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14448,13 +14448,13 @@
         <v>70</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14505,7 +14505,7 @@
         <v>70</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>71</v>
@@ -14522,10 +14522,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14554,7 +14554,7 @@
         <v>123</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>125</v>
@@ -14607,7 +14607,7 @@
         <v>128</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>71</v>
@@ -14624,10 +14624,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14653,29 +14653,29 @@
         <v>92</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>70</v>
       </c>
       <c r="T118" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="U118" t="s" s="2">
         <v>70</v>
@@ -14711,7 +14711,7 @@
         <v>70</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>71</v>
@@ -14728,10 +14728,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14754,16 +14754,16 @@
         <v>78</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -14813,7 +14813,7 @@
         <v>70</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>71</v>
@@ -14830,10 +14830,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14859,16 +14859,16 @@
         <v>98</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>70</v>
@@ -14917,7 +14917,7 @@
         <v>70</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>71</v>
@@ -14934,10 +14934,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14960,19 +14960,19 @@
         <v>78</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>70</v>
@@ -15021,7 +15021,7 @@
         <v>70</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>71</v>
@@ -15038,10 +15038,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15064,19 +15064,19 @@
         <v>78</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>70</v>
@@ -15125,7 +15125,7 @@
         <v>70</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>71</v>
@@ -15142,10 +15142,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15168,19 +15168,19 @@
         <v>78</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>70</v>
@@ -15229,7 +15229,7 @@
         <v>70</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>71</v>
@@ -15246,13 +15246,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>70</v>
@@ -15274,19 +15274,19 @@
         <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>70</v>
@@ -15311,13 +15311,13 @@
         <v>70</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>70</v>
@@ -15335,7 +15335,7 @@
         <v>70</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>71</v>
@@ -15352,10 +15352,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15378,13 +15378,13 @@
         <v>70</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -15435,7 +15435,7 @@
         <v>70</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>71</v>
@@ -15452,10 +15452,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15484,7 +15484,7 @@
         <v>123</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N126" t="s" s="2">
         <v>125</v>
@@ -15537,7 +15537,7 @@
         <v>128</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>71</v>
@@ -15554,10 +15554,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15580,19 +15580,19 @@
         <v>78</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>70</v>
@@ -15641,7 +15641,7 @@
         <v>70</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>71</v>
@@ -15658,10 +15658,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15684,13 +15684,13 @@
         <v>70</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -15741,7 +15741,7 @@
         <v>70</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>71</v>
@@ -15758,10 +15758,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15790,7 +15790,7 @@
         <v>123</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>125</v>
@@ -15843,7 +15843,7 @@
         <v>128</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>71</v>
@@ -15860,10 +15860,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15889,23 +15889,23 @@
         <v>92</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>70</v>
@@ -15947,7 +15947,7 @@
         <v>70</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>71</v>
@@ -15964,10 +15964,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15990,16 +15990,16 @@
         <v>78</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -16049,7 +16049,7 @@
         <v>70</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>71</v>
@@ -16066,10 +16066,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16095,16 +16095,16 @@
         <v>98</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>70</v>
@@ -16153,7 +16153,7 @@
         <v>70</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>71</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16196,19 +16196,19 @@
         <v>78</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>70</v>
@@ -16257,7 +16257,7 @@
         <v>70</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>71</v>
@@ -16274,10 +16274,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16300,19 +16300,19 @@
         <v>78</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>70</v>
@@ -16361,7 +16361,7 @@
         <v>70</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>71</v>
@@ -16378,10 +16378,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16404,19 +16404,19 @@
         <v>78</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>70</v>
@@ -16465,7 +16465,7 @@
         <v>70</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>71</v>
@@ -16482,13 +16482,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>70</v>
@@ -16510,19 +16510,19 @@
         <v>78</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>70</v>
@@ -16547,13 +16547,13 @@
         <v>70</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>70</v>
@@ -16571,7 +16571,7 @@
         <v>70</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>71</v>
@@ -16588,13 +16588,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D137" t="s" s="2">
         <v>70</v>
@@ -16616,19 +16616,19 @@
         <v>78</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>70</v>
@@ -16653,13 +16653,13 @@
         <v>70</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>70</v>
@@ -16677,7 +16677,7 @@
         <v>70</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>71</v>
@@ -16694,13 +16694,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>70</v>
@@ -16722,19 +16722,19 @@
         <v>78</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>70</v>
@@ -16759,13 +16759,13 @@
         <v>70</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>70</v>
@@ -16783,7 +16783,7 @@
         <v>70</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>71</v>
@@ -16800,13 +16800,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>70</v>
@@ -16828,19 +16828,19 @@
         <v>78</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>70</v>
@@ -16865,11 +16865,11 @@
         <v>70</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>70</v>
@@ -16887,7 +16887,7 @@
         <v>70</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>71</v>
@@ -16904,10 +16904,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16930,19 +16930,19 @@
         <v>78</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>70</v>
@@ -16991,7 +16991,7 @@
         <v>70</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>71</v>
@@ -17000,7 +17000,7 @@
         <v>77</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>90</v>
@@ -17008,10 +17008,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -17034,19 +17034,19 @@
         <v>70</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>70</v>
@@ -17095,7 +17095,7 @@
         <v>70</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>71</v>
@@ -17112,10 +17112,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17138,19 +17138,19 @@
         <v>70</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>70</v>
@@ -17199,7 +17199,7 @@
         <v>70</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>71</v>
@@ -17208,18 +17208,18 @@
         <v>72</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17242,19 +17242,19 @@
         <v>70</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>70</v>
@@ -17303,7 +17303,7 @@
         <v>70</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>71</v>
@@ -17312,18 +17312,18 @@
         <v>72</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17346,13 +17346,13 @@
         <v>70</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -17403,7 +17403,7 @@
         <v>70</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>71</v>
@@ -17420,10 +17420,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17452,7 +17452,7 @@
         <v>123</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>125</v>
@@ -17505,7 +17505,7 @@
         <v>128</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>71</v>
@@ -17522,13 +17522,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B146" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="B146" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="C146" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>70</v>
@@ -17550,7 +17550,7 @@
         <v>70</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L146" t="s" s="2">
         <v>134</v>
@@ -17607,7 +17607,7 @@
         <v>70</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>71</v>
@@ -17624,10 +17624,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17650,13 +17650,13 @@
         <v>70</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17707,7 +17707,7 @@
         <v>70</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>71</v>
@@ -17724,10 +17724,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17756,7 +17756,7 @@
         <v>146</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>484</v>
+        <v>154</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -17807,7 +17807,7 @@
         <v>128</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>71</v>
@@ -17952,7 +17952,7 @@
         <v>70</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L150" t="s" s="2">
         <v>494</v>
@@ -17985,7 +17985,7 @@
         <v>70</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y150" t="s" s="2">
         <v>496</v>
@@ -18029,7 +18029,7 @@
         <v>499</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>500</v>
@@ -18111,7 +18111,7 @@
         <v>70</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>71</v>
@@ -18131,7 +18131,7 @@
         <v>502</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>503</v>
@@ -18213,7 +18213,7 @@
         <v>70</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>71</v>
@@ -18233,7 +18233,7 @@
         <v>505</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>506</v>
@@ -18315,7 +18315,7 @@
         <v>70</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>71</v>
@@ -18335,7 +18335,7 @@
         <v>508</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C154" t="s" s="2">
         <v>509</v>
@@ -18417,7 +18417,7 @@
         <v>70</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>71</v>
@@ -18497,7 +18497,7 @@
         <v>70</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y155" t="s" s="2">
         <v>517</v>
@@ -18599,7 +18599,7 @@
         <v>70</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y156" t="s" s="2">
         <v>525</v>
@@ -18666,7 +18666,7 @@
         <v>78</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>529</v>
@@ -18770,7 +18770,7 @@
         <v>78</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L158" t="s" s="2">
         <v>536</v>
@@ -18779,7 +18779,7 @@
         <v>537</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -18872,13 +18872,13 @@
         <v>70</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -18929,7 +18929,7 @@
         <v>70</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>71</v>
@@ -18978,7 +18978,7 @@
         <v>123</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N160" t="s" s="2">
         <v>125</v>
@@ -19031,7 +19031,7 @@
         <v>128</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>71</v>
@@ -19133,7 +19133,7 @@
         <v>70</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>71</v>
@@ -19176,13 +19176,13 @@
         <v>70</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -19233,7 +19233,7 @@
         <v>70</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>71</v>
@@ -19282,7 +19282,7 @@
         <v>123</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N163" t="s" s="2">
         <v>125</v>
@@ -19335,7 +19335,7 @@
         <v>128</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>71</v>
@@ -19480,7 +19480,7 @@
         <v>70</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L165" t="s" s="2">
         <v>494</v>
@@ -19580,7 +19580,7 @@
         <v>70</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L166" t="s" s="2">
         <v>494</v>
@@ -19613,7 +19613,7 @@
         <v>70</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y166" t="s" s="2">
         <v>559</v>
@@ -19739,7 +19739,7 @@
         <v>70</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>71</v>
@@ -19782,7 +19782,7 @@
         <v>70</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L168" t="s" s="2">
         <v>565</v>
@@ -19882,7 +19882,7 @@
         <v>78</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L169" t="s" s="2">
         <v>570</v>
@@ -19891,7 +19891,7 @@
         <v>571</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
@@ -19984,7 +19984,7 @@
         <v>78</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L170" t="s" s="2">
         <v>576</v>
@@ -20086,7 +20086,7 @@
         <v>78</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L171" t="s" s="2">
         <v>583</v>
@@ -20095,7 +20095,7 @@
         <v>584</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
@@ -20188,7 +20188,7 @@
         <v>78</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L172" t="s" s="2">
         <v>588</v>
@@ -20197,7 +20197,7 @@
         <v>589</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
@@ -20290,7 +20290,7 @@
         <v>78</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L173" t="s" s="2">
         <v>593</v>
@@ -20392,7 +20392,7 @@
         <v>78</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L174" t="s" s="2">
         <v>598</v>
@@ -20465,7 +20465,7 @@
         <v>89</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="175">
@@ -20569,7 +20569,7 @@
         <v>89</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="176">
@@ -20600,13 +20600,13 @@
         <v>70</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -20657,7 +20657,7 @@
         <v>70</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>71</v>
@@ -20706,7 +20706,7 @@
         <v>123</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N177" t="s" s="2">
         <v>125</v>
@@ -20759,7 +20759,7 @@
         <v>128</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>71</v>
@@ -20802,7 +20802,7 @@
         <v>78</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L178" t="s" s="2">
         <v>613</v>
@@ -20939,7 +20939,7 @@
         <v>70</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y179" t="s" s="2">
         <v>622</v>
@@ -21006,7 +21006,7 @@
         <v>78</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L180" t="s" s="2">
         <v>626</v>
@@ -21108,7 +21108,7 @@
         <v>78</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L181" t="s" s="2">
         <v>631</v>
@@ -21314,13 +21314,13 @@
         <v>70</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -21371,7 +21371,7 @@
         <v>70</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>71</v>
@@ -21420,7 +21420,7 @@
         <v>123</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N184" t="s" s="2">
         <v>125</v>
@@ -21473,7 +21473,7 @@
         <v>128</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>71</v>
@@ -21575,7 +21575,7 @@
         <v>70</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>71</v>
@@ -21677,7 +21677,7 @@
         <v>70</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>71</v>
@@ -21779,7 +21779,7 @@
         <v>70</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>71</v>
@@ -21834,7 +21834,7 @@
         <v>125</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>70</v>
@@ -21926,7 +21926,7 @@
         <v>70</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L189" t="s" s="2">
         <v>658</v>
@@ -21963,7 +21963,7 @@
         <v>70</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y189" s="2"/>
       <c r="Z189" t="s" s="2">
@@ -22132,13 +22132,13 @@
         <v>70</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" t="s" s="2">
@@ -22234,13 +22234,13 @@
         <v>70</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -22291,7 +22291,7 @@
         <v>70</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>71</v>
@@ -22340,7 +22340,7 @@
         <v>123</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N193" t="s" s="2">
         <v>125</v>
@@ -22393,7 +22393,7 @@
         <v>128</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>71</v>
@@ -22497,7 +22497,7 @@
         <v>70</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>71</v>
@@ -22599,7 +22599,7 @@
         <v>70</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>71</v>
@@ -22701,7 +22701,7 @@
         <v>70</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>71</v>
@@ -22753,7 +22753,7 @@
         <v>686</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -22779,7 +22779,7 @@
         <v>70</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y197" t="s" s="2">
         <v>687</v>
@@ -22846,7 +22846,7 @@
         <v>78</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L198" t="s" s="2">
         <v>692</v>
@@ -22987,7 +22987,7 @@
         <v>70</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y199" t="s" s="2">
         <v>702</v>
@@ -23156,7 +23156,7 @@
         <v>78</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L201" t="s" s="2">
         <v>712</v>
@@ -23227,7 +23227,7 @@
         <v>89</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202">
@@ -23258,16 +23258,16 @@
         <v>70</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>716</v>
@@ -23435,7 +23435,7 @@
         <v>89</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T16:29:09+00:00</t>
+    <t>2023-04-07T16:20:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T13:10:15+00:00</t>
+    <t>2023-04-12T14:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:18:07+00:00</t>
+    <t>2023-04-12T14:39:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:39:26+00:00</t>
+    <t>2023-04-12T15:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
